--- a/schliessanlagen-konfigurator/schliessanlagen-konfigurator/wwwroot/Orders/AnthonyBonetta1652024 OrderFile.xlsx
+++ b/schliessanlagen-konfigurator/schliessanlagen-konfigurator/wwwroot/Orders/AnthonyBonetta1652024 OrderFile.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Schließplan" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Schließplan" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001" fullCalcOnLoad="1"/>
   <extLst>
@@ -690,7 +690,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>Schließplan</t>
   </si>
@@ -767,16 +767,16 @@
     <t>Färbung</t>
   </si>
   <si>
-    <r>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <rPr>
         <rFont val="Verdana"/>
         <charset val="1"/>
         <family val="2"/>
         <sz val="10"/>
       </rPr>
-      <t xml:space="preserve">Länge I_x000A_</t>
+      <t xml:space="preserve">Länge I_x005F_x000A_</t>
     </r>
-    <r>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <rPr>
         <rFont val="Verdana"/>
         <charset val="1"/>
@@ -787,16 +787,16 @@
     </r>
   </si>
   <si>
-    <r>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <rPr>
         <rFont val="Verdana"/>
         <charset val="1"/>
         <family val="2"/>
         <sz val="10"/>
       </rPr>
-      <t xml:space="preserve">Länge A_x000A_</t>
+      <t xml:space="preserve">Länge A_x005F_x000A_</t>
     </r>
-    <r>
+    <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <rPr>
         <rFont val="Verdana"/>
         <charset val="1"/>
@@ -834,19 +834,22 @@
     <t>Profil-Knaufzylinder</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>House</t>
   </si>
   <si>
     <t>Profil-Halbzylinder</t>
   </si>
   <si>
+    <t xml:space="preserve">Freilauffunktion:  JA</t>
+  </si>
+  <si>
     <t>d</t>
   </si>
   <si>
     <t>Hebelzylinder</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>df</t>
@@ -865,7 +868,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="8">
+  <numFmts count="9">
+    <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* \-??_-;_-@_-"/>
@@ -880,7 +884,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -893,26 +896,22 @@
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b/>
       <sz val="18"/>
       <name val="Verdana"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="Verdana"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b/>
@@ -920,20 +919,17 @@
       <color rgb="FF000000"/>
       <name val="Verdana"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="Verdana"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="Verdana"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -967,95 +963,105 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="13">
-    <xf numFmtId="164" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" borderId="0" applyBorder="1" applyProtection="1" applyAlignment="1"/>
-    <xf numFmtId="43" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0"/>
-    <xf numFmtId="41" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0"/>
-    <xf numFmtId="44" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0"/>
-    <xf numFmtId="42" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0"/>
-    <xf numFmtId="9" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0"/>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0"/>
-    <xf numFmtId="166" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0"/>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0"/>
-    <xf numFmtId="166" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0"/>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" borderId="0" applyBorder="1" applyProtection="1" applyAlignment="1"/>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" borderId="0" applyBorder="1" applyProtection="1" applyAlignment="1"/>
-    <xf numFmtId="167" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0"/>
+  <cellStyleXfs count="12">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
-    <xf numFmtId="164" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1"/>
-    <xf numFmtId="168" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" borderId="0" applyBorder="0" xfId="11" applyProtection="0" applyAlignment="0">
+  <cellXfs count="38">
+    <xf numFmtId="164" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="43" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1" applyProtection="1"/>
+    <xf numFmtId="41" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="2" applyProtection="1"/>
+    <xf numFmtId="44" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="3" applyProtection="1"/>
+    <xf numFmtId="42" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="4" applyProtection="1"/>
+    <xf numFmtId="9" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="5" applyProtection="1"/>
+    <xf numFmtId="165" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="6" applyProtection="1"/>
+    <xf numFmtId="166" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="7" applyProtection="1"/>
+    <xf numFmtId="165" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="8" applyProtection="1"/>
+    <xf numFmtId="166" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="9" applyProtection="1"/>
+    <xf numFmtId="164" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="10" applyProtection="1"/>
+    <xf numFmtId="167" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="11" applyProtection="1"/>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" borderId="0" applyBorder="0" xfId="11" applyProtection="0" applyAlignment="0">
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="169" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" borderId="0" applyBorder="0" xfId="11" applyProtection="0" applyAlignment="0">
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" borderId="0" applyBorder="1" xfId="11" applyProtection="0" applyAlignment="0">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" borderId="0" applyBorder="0" xfId="11" applyProtection="0" applyAlignment="0">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" borderId="0" applyBorder="1" xfId="11" applyProtection="0" applyAlignment="0">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" borderId="0" applyBorder="1" xfId="11" applyProtection="0" applyAlignment="0">
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" borderId="0" applyBorder="0" xfId="11" applyProtection="0" applyAlignment="0">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" borderId="0" applyBorder="1" xfId="11" applyProtection="0" applyAlignment="0">
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" borderId="0" applyBorder="0" xfId="11" applyProtection="0" applyAlignment="0"/>
-    <xf numFmtId="169" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" borderId="0" applyBorder="1" xfId="11" applyProtection="0" applyAlignment="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="168" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" borderId="0" applyBorder="0" xfId="11" applyProtection="0" applyAlignment="0"/>
-    <xf numFmtId="168" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" borderId="0" applyBorder="0" xfId="11" applyProtection="0" applyAlignment="0"/>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" borderId="0" applyBorder="0" xfId="11" applyProtection="0" applyAlignment="0"/>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" borderId="0" applyBorder="0" xfId="11" applyProtection="0" applyAlignment="0">
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="169" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" borderId="1" applyBorder="1" xfId="11" applyProtection="0" applyAlignment="0">
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" borderId="2" applyBorder="1" xfId="11" applyProtection="0" applyAlignment="0">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" borderId="0" applyBorder="1" xfId="11" applyProtection="0" applyAlignment="0">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" borderId="0" applyBorder="1" xfId="11" applyProtection="0" applyAlignment="0">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" borderId="0" applyBorder="0" xfId="11" applyProtection="0" applyAlignment="0">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="top" textRotation="90"/>
     </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" borderId="0" applyBorder="0" xfId="11" applyProtection="0" applyAlignment="0">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0">
       <alignment horizontal="center" wrapText="1" textRotation="90"/>
     </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" borderId="0" applyBorder="0" xfId="11" applyProtection="0" applyAlignment="0">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" borderId="0" applyBorder="0" xfId="11" applyProtection="0" applyAlignment="0">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" borderId="0" applyBorder="0" xfId="11" applyProtection="0" applyAlignment="0">
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="0">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="170" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" borderId="0" applyBorder="0" xfId="11" applyProtection="0" applyAlignment="0">
+    <xf numFmtId="170" fontId="3" fillId="0" borderId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" borderId="0" applyBorder="0" xfId="11" applyProtection="0" applyAlignment="0">
+    <xf numFmtId="170" fontId="3" fillId="0" borderId="0">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="13">
+  <cellStyles count="12">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
@@ -1067,8 +1073,8 @@
     <cellStyle name="Currency" xfId="8"/>
     <cellStyle name="Currency [0]" xfId="9"/>
     <cellStyle name="Hyperlink 1" xfId="10"/>
-    <cellStyle name="Normal" xfId="11"/>
-    <cellStyle name="Percent" xfId="12"/>
+    <cellStyle name="Normal" xfId="-2147483648"/>
+    <cellStyle name="Percent" xfId="11"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -1148,1232 +1154,1232 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.43359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="11.43359375" customWidth="1" style="1"/>
-    <col min="2" max="2" width="11.43359375" customWidth="1" style="1"/>
-    <col min="3" max="3" width="31.164432525634766" customWidth="1" style="2"/>
-    <col min="4" max="4" hidden="1" width="14.28" customWidth="1" style="2"/>
-    <col min="5" max="5" hidden="1" width="6.42" customWidth="1" style="1"/>
-    <col min="6" max="6" width="11.43359375" customWidth="1" style="1"/>
-    <col min="7" max="7" width="29.465829849243164" customWidth="1" style="1"/>
-    <col min="8" max="8" width="11.43359375" customWidth="1" style="1"/>
-    <col min="9" max="9" width="11.43359375" customWidth="1" style="1"/>
-    <col min="10" max="10" width="11.43359375" customWidth="1" style="1"/>
-    <col min="11" max="11" width="11.43359375" customWidth="1" style="1"/>
-    <col min="12" max="12" width="11.43359375" customWidth="1" style="1"/>
-    <col min="13" max="13" width="11.43359375" customWidth="1" style="1"/>
-    <col min="14" max="14" width="11.43359375" customWidth="1" style="1"/>
-    <col min="15" max="15" width="11.43359375" customWidth="1" style="1"/>
-    <col min="16" max="16" hidden="1" width="2.85" customWidth="1" style="1"/>
-    <col min="17" max="17" width="11.43359375" customWidth="1" style="1"/>
-    <col min="18" max="18" width="11.43359375" customWidth="1" style="1"/>
-    <col min="19" max="19" width="11.43359375" customWidth="1" style="1"/>
-    <col min="20" max="20" width="11.43359375" customWidth="1" style="1"/>
-    <col min="21" max="21" width="11.43359375" customWidth="1" style="1"/>
-    <col min="22" max="22" width="11.43359375" customWidth="1" style="1"/>
-    <col min="23" max="23" width="11.43359375" customWidth="1" style="1"/>
-    <col min="24" max="24" width="11.43359375" customWidth="1" style="1"/>
-    <col min="25" max="25" width="11.43359375" customWidth="1" style="1"/>
-    <col min="26" max="26" width="11.43359375" customWidth="1" style="1"/>
-    <col min="27" max="27" width="11.43359375" customWidth="1" style="1"/>
-    <col min="28" max="28" width="11.43359375" customWidth="1" style="1"/>
-    <col min="29" max="29" width="11.43359375" customWidth="1" style="1"/>
-    <col min="30" max="30" width="11.43359375" customWidth="1" style="1"/>
-    <col min="31" max="31" width="11.43359375" customWidth="1" style="1"/>
-    <col min="32" max="32" width="11.43359375" customWidth="1" style="1"/>
-    <col min="33" max="33" width="11.43359375" customWidth="1" style="1"/>
-    <col min="34" max="34" width="11.43359375" customWidth="1" style="1"/>
-    <col min="35" max="35" width="11.43359375" customWidth="1" style="1"/>
-    <col min="36" max="36" width="11.43359375" customWidth="1" style="1"/>
-    <col min="37" max="37" width="11.43359375" customWidth="1" style="1"/>
-    <col min="38" max="38" width="11.43359375" customWidth="1" style="1"/>
-    <col min="39" max="39" width="11.43359375" customWidth="1" style="1"/>
-    <col min="40" max="40" width="11.43359375" customWidth="1" style="1"/>
-    <col min="41" max="41" width="11.43359375" customWidth="1" style="1"/>
-    <col min="42" max="42" width="11.43359375" customWidth="1" style="1"/>
-    <col min="43" max="43" width="11.43359375" customWidth="1" style="1"/>
-    <col min="44" max="44" width="11.43359375" customWidth="1" style="1"/>
-    <col min="45" max="45" width="11.43359375" customWidth="1" style="1"/>
-    <col min="46" max="46" width="11.43359375" customWidth="1" style="1"/>
-    <col min="47" max="47" width="11.43359375" customWidth="1" style="1"/>
-    <col min="48" max="48" width="11.43359375" customWidth="1" style="1"/>
-    <col min="49" max="49" width="11.43359375" customWidth="1" style="1"/>
-    <col min="50" max="50" width="11.43359375" customWidth="1" style="1"/>
-    <col min="51" max="51" width="11.43359375" customWidth="1" style="1"/>
-    <col min="52" max="52" width="11.43359375" customWidth="1" style="1"/>
-    <col min="53" max="53" width="11.43359375" customWidth="1" style="1"/>
-    <col min="54" max="54" width="11.43359375" customWidth="1" style="1"/>
-    <col min="55" max="55" width="11.43359375" customWidth="1" style="1"/>
-    <col min="56" max="56" width="11.43359375" customWidth="1" style="1"/>
-    <col min="57" max="57" width="11.43359375" customWidth="1" style="1"/>
-    <col min="58" max="58" width="11.43359375" customWidth="1" style="1"/>
-    <col min="59" max="59" width="11.43359375" customWidth="1" style="1"/>
-    <col min="60" max="60" width="11.43359375" customWidth="1" style="1"/>
-    <col min="61" max="61" width="11.43359375" customWidth="1" style="1"/>
-    <col min="62" max="62" width="11.43359375" customWidth="1" style="1"/>
-    <col min="63" max="63" width="11.43359375" customWidth="1" style="1"/>
-    <col min="64" max="64" width="11.43359375" customWidth="1" style="1"/>
-    <col min="65" max="65" width="11.43359375" customWidth="1" style="1"/>
-    <col min="66" max="66" width="11.43359375" customWidth="1" style="1"/>
-    <col min="67" max="67" width="11.43359375" customWidth="1" style="1"/>
-    <col min="68" max="68" width="11.43359375" customWidth="1" style="1"/>
-    <col min="69" max="69" width="11.43359375" customWidth="1" style="1"/>
-    <col min="70" max="70" width="11.43359375" customWidth="1" style="1"/>
-    <col min="71" max="71" width="11.43359375" customWidth="1" style="1"/>
-    <col min="72" max="72" width="11.43359375" customWidth="1" style="1"/>
-    <col min="73" max="73" width="11.43359375" customWidth="1" style="1"/>
-    <col min="74" max="74" width="11.43359375" customWidth="1" style="1"/>
-    <col min="75" max="75" width="11.43359375" customWidth="1" style="1"/>
-    <col min="76" max="76" width="11.43359375" customWidth="1" style="1"/>
-    <col min="77" max="77" width="11.43359375" customWidth="1" style="1"/>
-    <col min="78" max="78" width="11.43359375" customWidth="1" style="1"/>
-    <col min="79" max="1022" width="11.43359375" customWidth="1" style="1"/>
+    <col min="1" max="1" width="11.43359375" customWidth="1" style="12"/>
+    <col min="2" max="2" width="11.43359375" customWidth="1" style="12"/>
+    <col min="3" max="3" width="31.878719329833984" customWidth="1" style="13"/>
+    <col min="4" max="4" width="11.599390029907227" customWidth="1" style="13"/>
+    <col min="5" max="5" width="11.43359375" customWidth="1" style="12"/>
+    <col min="6" max="6" width="11.43359375" customWidth="1" style="12"/>
+    <col min="7" max="7" width="30.18011474609375" customWidth="1" style="12"/>
+    <col min="8" max="8" width="11.43359375" customWidth="1" style="12"/>
+    <col min="9" max="9" width="11.43359375" customWidth="1" style="12"/>
+    <col min="10" max="10" width="11.43359375" customWidth="1" style="12"/>
+    <col min="11" max="11" width="11.43359375" customWidth="1" style="12"/>
+    <col min="12" max="12" width="11.43359375" customWidth="1" style="12"/>
+    <col min="13" max="13" width="11.43359375" customWidth="1" style="12"/>
+    <col min="14" max="14" width="11.43359375" customWidth="1" style="12"/>
+    <col min="15" max="15" width="11.43359375" customWidth="1" style="12"/>
+    <col min="16" max="16" width="11.43359375" customWidth="1" style="12"/>
+    <col min="17" max="17" width="11.43359375" customWidth="1" style="12"/>
+    <col min="18" max="18" width="11.43359375" customWidth="1" style="12"/>
+    <col min="19" max="19" width="11.43359375" customWidth="1" style="12"/>
+    <col min="20" max="20" width="11.43359375" customWidth="1" style="12"/>
+    <col min="21" max="21" width="11.43359375" customWidth="1" style="12"/>
+    <col min="22" max="22" width="11.43359375" customWidth="1" style="12"/>
+    <col min="23" max="23" width="11.43359375" customWidth="1" style="12"/>
+    <col min="24" max="24" width="11.43359375" customWidth="1" style="12"/>
+    <col min="25" max="25" width="11.43359375" customWidth="1" style="12"/>
+    <col min="26" max="26" width="11.43359375" customWidth="1" style="12"/>
+    <col min="27" max="27" width="11.43359375" customWidth="1" style="12"/>
+    <col min="28" max="28" width="11.43359375" customWidth="1" style="12"/>
+    <col min="29" max="29" width="11.43359375" customWidth="1" style="12"/>
+    <col min="30" max="30" width="11.43359375" customWidth="1" style="12"/>
+    <col min="31" max="31" width="11.43359375" customWidth="1" style="12"/>
+    <col min="32" max="32" width="11.43359375" customWidth="1" style="12"/>
+    <col min="33" max="33" width="11.43359375" customWidth="1" style="12"/>
+    <col min="34" max="34" width="11.43359375" customWidth="1" style="12"/>
+    <col min="35" max="35" width="11.43359375" customWidth="1" style="12"/>
+    <col min="36" max="36" width="11.43359375" customWidth="1" style="12"/>
+    <col min="37" max="37" width="11.43359375" customWidth="1" style="12"/>
+    <col min="38" max="38" width="11.43359375" customWidth="1" style="12"/>
+    <col min="39" max="39" width="11.43359375" customWidth="1" style="12"/>
+    <col min="40" max="40" width="11.43359375" customWidth="1" style="12"/>
+    <col min="41" max="41" width="11.43359375" customWidth="1" style="12"/>
+    <col min="42" max="42" width="11.43359375" customWidth="1" style="12"/>
+    <col min="43" max="43" width="11.43359375" customWidth="1" style="12"/>
+    <col min="44" max="44" width="11.43359375" customWidth="1" style="12"/>
+    <col min="45" max="45" width="11.43359375" customWidth="1" style="12"/>
+    <col min="46" max="46" width="11.43359375" customWidth="1" style="12"/>
+    <col min="47" max="47" width="11.43359375" customWidth="1" style="12"/>
+    <col min="48" max="48" width="11.43359375" customWidth="1" style="12"/>
+    <col min="49" max="49" width="11.43359375" customWidth="1" style="12"/>
+    <col min="50" max="50" width="11.43359375" customWidth="1" style="12"/>
+    <col min="51" max="51" width="11.43359375" customWidth="1" style="12"/>
+    <col min="52" max="52" width="11.43359375" customWidth="1" style="12"/>
+    <col min="53" max="53" width="11.43359375" customWidth="1" style="12"/>
+    <col min="54" max="54" width="11.43359375" customWidth="1" style="12"/>
+    <col min="55" max="55" width="11.43359375" customWidth="1" style="12"/>
+    <col min="56" max="56" width="11.43359375" customWidth="1" style="12"/>
+    <col min="57" max="57" width="11.43359375" customWidth="1" style="12"/>
+    <col min="58" max="58" width="11.43359375" customWidth="1" style="12"/>
+    <col min="59" max="59" width="11.43359375" customWidth="1" style="12"/>
+    <col min="60" max="60" width="11.43359375" customWidth="1" style="12"/>
+    <col min="61" max="61" width="11.43359375" customWidth="1" style="12"/>
+    <col min="62" max="62" width="11.43359375" customWidth="1" style="12"/>
+    <col min="63" max="63" width="11.43359375" customWidth="1" style="12"/>
+    <col min="64" max="64" width="11.43359375" customWidth="1" style="12"/>
+    <col min="65" max="65" width="11.43359375" customWidth="1" style="12"/>
+    <col min="66" max="66" width="11.43359375" customWidth="1" style="12"/>
+    <col min="67" max="67" width="11.43359375" customWidth="1" style="12"/>
+    <col min="68" max="68" width="11.43359375" customWidth="1" style="12"/>
+    <col min="69" max="69" width="11.43359375" customWidth="1" style="12"/>
+    <col min="70" max="70" width="11.43359375" customWidth="1" style="12"/>
+    <col min="71" max="71" width="11.43359375" customWidth="1" style="12"/>
+    <col min="72" max="72" width="11.43359375" customWidth="1" style="12"/>
+    <col min="73" max="73" width="11.43359375" customWidth="1" style="12"/>
+    <col min="74" max="74" width="11.43359375" customWidth="1" style="12"/>
+    <col min="75" max="75" width="11.43359375" customWidth="1" style="12"/>
+    <col min="76" max="76" width="11.43359375" customWidth="1" style="12"/>
+    <col min="77" max="77" width="11.43359375" customWidth="1" style="12"/>
+    <col min="78" max="78" width="11.43359375" customWidth="1" style="12"/>
+    <col min="79" max="1022" width="11.43359375" customWidth="1" style="12"/>
     <col min="1023" max="1023" width="11.43359375" customWidth="1"/>
     <col min="1024" max="1024" width="11.43359375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.75" customHeight="1" s="8" customFormat="1">
-      <c r="A1" s="3"/>
-      <c r="B1" s="4" t="s">
+    <row r="1" ht="12.75" customHeight="1" s="19" customFormat="1">
+      <c r="A1" s="14"/>
+      <c r="B1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="6" t="s">
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="7" t="s">
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
-      <c r="X1" s="7"/>
-      <c r="Y1" s="7"/>
-      <c r="Z1" s="7"/>
-      <c r="AA1" s="7"/>
-      <c r="AB1" s="7"/>
-      <c r="AC1" s="7"/>
-      <c r="AD1" s="7"/>
-      <c r="AE1" s="7"/>
-      <c r="AF1" s="7"/>
-      <c r="AG1" s="7"/>
-      <c r="AH1" s="7"/>
-      <c r="AI1" s="7"/>
-      <c r="AJ1" s="7"/>
-      <c r="AK1" s="7"/>
-      <c r="AL1" s="7"/>
-      <c r="AM1" s="7"/>
-      <c r="AN1" s="7"/>
-      <c r="AO1" s="7"/>
-      <c r="AP1" s="7"/>
-      <c r="AQ1" s="7"/>
-      <c r="AR1" s="7"/>
-      <c r="AS1" s="7"/>
-      <c r="AT1" s="7"/>
-      <c r="AU1" s="7"/>
-      <c r="AV1" s="7"/>
-      <c r="AW1" s="7"/>
-      <c r="AX1" s="7"/>
-      <c r="AY1" s="7"/>
-      <c r="AZ1" s="7"/>
-      <c r="BA1" s="7"/>
-      <c r="BB1" s="7"/>
-      <c r="BC1" s="7"/>
-      <c r="BD1" s="7"/>
-      <c r="BE1" s="7"/>
-      <c r="BF1" s="7"/>
-      <c r="BG1" s="7"/>
-      <c r="BH1" s="7"/>
-      <c r="BI1" s="7"/>
-      <c r="BJ1" s="7"/>
-      <c r="BK1" s="7"/>
-      <c r="BL1" s="7"/>
-      <c r="BM1" s="7"/>
-      <c r="BN1" s="7"/>
-      <c r="BO1" s="7"/>
-      <c r="BP1" s="7"/>
-      <c r="BQ1" s="7"/>
-      <c r="BR1" s="7"/>
-      <c r="BS1" s="7"/>
-      <c r="BT1" s="7"/>
-      <c r="BU1" s="7"/>
-      <c r="BV1" s="7"/>
-      <c r="BW1" s="7"/>
-      <c r="BX1" s="7"/>
-      <c r="BY1" s="7"/>
-      <c r="BZ1" s="7"/>
-      <c r="AMI1" s="8"/>
-      <c r="AMJ1" s="8"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
+      <c r="X1" s="18"/>
+      <c r="Y1" s="18"/>
+      <c r="Z1" s="18"/>
+      <c r="AA1" s="18"/>
+      <c r="AB1" s="18"/>
+      <c r="AC1" s="18"/>
+      <c r="AD1" s="18"/>
+      <c r="AE1" s="18"/>
+      <c r="AF1" s="18"/>
+      <c r="AG1" s="18"/>
+      <c r="AH1" s="18"/>
+      <c r="AI1" s="18"/>
+      <c r="AJ1" s="18"/>
+      <c r="AK1" s="18"/>
+      <c r="AL1" s="18"/>
+      <c r="AM1" s="18"/>
+      <c r="AN1" s="18"/>
+      <c r="AO1" s="18"/>
+      <c r="AP1" s="18"/>
+      <c r="AQ1" s="18"/>
+      <c r="AR1" s="18"/>
+      <c r="AS1" s="18"/>
+      <c r="AT1" s="18"/>
+      <c r="AU1" s="18"/>
+      <c r="AV1" s="18"/>
+      <c r="AW1" s="18"/>
+      <c r="AX1" s="18"/>
+      <c r="AY1" s="18"/>
+      <c r="AZ1" s="18"/>
+      <c r="BA1" s="18"/>
+      <c r="BB1" s="18"/>
+      <c r="BC1" s="18"/>
+      <c r="BD1" s="18"/>
+      <c r="BE1" s="18"/>
+      <c r="BF1" s="18"/>
+      <c r="BG1" s="18"/>
+      <c r="BH1" s="18"/>
+      <c r="BI1" s="18"/>
+      <c r="BJ1" s="18"/>
+      <c r="BK1" s="18"/>
+      <c r="BL1" s="18"/>
+      <c r="BM1" s="18"/>
+      <c r="BN1" s="18"/>
+      <c r="BO1" s="18"/>
+      <c r="BP1" s="18"/>
+      <c r="BQ1" s="18"/>
+      <c r="BR1" s="18"/>
+      <c r="BS1" s="18"/>
+      <c r="BT1" s="18"/>
+      <c r="BU1" s="18"/>
+      <c r="BV1" s="18"/>
+      <c r="BW1" s="18"/>
+      <c r="BX1" s="18"/>
+      <c r="BY1" s="18"/>
+      <c r="BZ1" s="18"/>
+      <c r="AMI1" s="19"/>
+      <c r="AMJ1" s="19"/>
     </row>
-    <row r="2" ht="13.5" customHeight="1" s="8" customFormat="1">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="7" t="s">
+    <row r="2" ht="13.5" customHeight="1" s="19" customFormat="1">
+      <c r="A2" s="14"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="7"/>
-      <c r="V2" s="7"/>
-      <c r="W2" s="7"/>
-      <c r="X2" s="7"/>
-      <c r="Y2" s="7"/>
-      <c r="Z2" s="7"/>
-      <c r="AA2" s="7"/>
-      <c r="AB2" s="7"/>
-      <c r="AC2" s="7"/>
-      <c r="AD2" s="7"/>
-      <c r="AE2" s="7"/>
-      <c r="AF2" s="7"/>
-      <c r="AG2" s="7"/>
-      <c r="AH2" s="7"/>
-      <c r="AI2" s="7"/>
-      <c r="AJ2" s="7"/>
-      <c r="AK2" s="7"/>
-      <c r="AL2" s="7"/>
-      <c r="AM2" s="7"/>
-      <c r="AN2" s="7"/>
-      <c r="AO2" s="7"/>
-      <c r="AP2" s="7"/>
-      <c r="AQ2" s="7"/>
-      <c r="AR2" s="7"/>
-      <c r="AS2" s="7"/>
-      <c r="AT2" s="7"/>
-      <c r="AU2" s="7"/>
-      <c r="AV2" s="7"/>
-      <c r="AW2" s="7"/>
-      <c r="AX2" s="7"/>
-      <c r="AY2" s="7"/>
-      <c r="AZ2" s="7"/>
-      <c r="BA2" s="7"/>
-      <c r="BB2" s="7"/>
-      <c r="BC2" s="7"/>
-      <c r="BD2" s="7"/>
-      <c r="BE2" s="7"/>
-      <c r="BF2" s="7"/>
-      <c r="BG2" s="7"/>
-      <c r="BH2" s="7"/>
-      <c r="BI2" s="7"/>
-      <c r="BJ2" s="7"/>
-      <c r="BK2" s="7"/>
-      <c r="BL2" s="7"/>
-      <c r="BM2" s="7"/>
-      <c r="BN2" s="7"/>
-      <c r="BO2" s="7"/>
-      <c r="BP2" s="7"/>
-      <c r="BQ2" s="7"/>
-      <c r="BR2" s="7"/>
-      <c r="BS2" s="7"/>
-      <c r="BT2" s="7"/>
-      <c r="BU2" s="7"/>
-      <c r="BV2" s="7"/>
-      <c r="BW2" s="7"/>
-      <c r="BX2" s="7"/>
-      <c r="BY2" s="7"/>
-      <c r="BZ2" s="7"/>
-      <c r="AMI2" s="8"/>
-      <c r="AMJ2" s="8"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="18"/>
+      <c r="W2" s="18"/>
+      <c r="X2" s="18"/>
+      <c r="Y2" s="18"/>
+      <c r="Z2" s="18"/>
+      <c r="AA2" s="18"/>
+      <c r="AB2" s="18"/>
+      <c r="AC2" s="18"/>
+      <c r="AD2" s="18"/>
+      <c r="AE2" s="18"/>
+      <c r="AF2" s="18"/>
+      <c r="AG2" s="18"/>
+      <c r="AH2" s="18"/>
+      <c r="AI2" s="18"/>
+      <c r="AJ2" s="18"/>
+      <c r="AK2" s="18"/>
+      <c r="AL2" s="18"/>
+      <c r="AM2" s="18"/>
+      <c r="AN2" s="18"/>
+      <c r="AO2" s="18"/>
+      <c r="AP2" s="18"/>
+      <c r="AQ2" s="18"/>
+      <c r="AR2" s="18"/>
+      <c r="AS2" s="18"/>
+      <c r="AT2" s="18"/>
+      <c r="AU2" s="18"/>
+      <c r="AV2" s="18"/>
+      <c r="AW2" s="18"/>
+      <c r="AX2" s="18"/>
+      <c r="AY2" s="18"/>
+      <c r="AZ2" s="18"/>
+      <c r="BA2" s="18"/>
+      <c r="BB2" s="18"/>
+      <c r="BC2" s="18"/>
+      <c r="BD2" s="18"/>
+      <c r="BE2" s="18"/>
+      <c r="BF2" s="18"/>
+      <c r="BG2" s="18"/>
+      <c r="BH2" s="18"/>
+      <c r="BI2" s="18"/>
+      <c r="BJ2" s="18"/>
+      <c r="BK2" s="18"/>
+      <c r="BL2" s="18"/>
+      <c r="BM2" s="18"/>
+      <c r="BN2" s="18"/>
+      <c r="BO2" s="18"/>
+      <c r="BP2" s="18"/>
+      <c r="BQ2" s="18"/>
+      <c r="BR2" s="18"/>
+      <c r="BS2" s="18"/>
+      <c r="BT2" s="18"/>
+      <c r="BU2" s="18"/>
+      <c r="BV2" s="18"/>
+      <c r="BW2" s="18"/>
+      <c r="BX2" s="18"/>
+      <c r="BY2" s="18"/>
+      <c r="BZ2" s="18"/>
+      <c r="AMI2" s="19"/>
+      <c r="AMJ2" s="19"/>
     </row>
-    <row r="3" ht="14.25" customHeight="1" s="8" customFormat="1">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="7" t="s">
+    <row r="3" ht="14.25" customHeight="1" s="19" customFormat="1">
+      <c r="A3" s="14"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
-      <c r="V3" s="7"/>
-      <c r="W3" s="7"/>
-      <c r="X3" s="7"/>
-      <c r="Y3" s="7"/>
-      <c r="Z3" s="7"/>
-      <c r="AA3" s="7"/>
-      <c r="AB3" s="7"/>
-      <c r="AC3" s="7"/>
-      <c r="AD3" s="7"/>
-      <c r="AE3" s="7"/>
-      <c r="AF3" s="7"/>
-      <c r="AG3" s="7"/>
-      <c r="AH3" s="7"/>
-      <c r="AI3" s="7"/>
-      <c r="AJ3" s="7"/>
-      <c r="AK3" s="7"/>
-      <c r="AL3" s="7"/>
-      <c r="AM3" s="7"/>
-      <c r="AN3" s="7"/>
-      <c r="AO3" s="7"/>
-      <c r="AP3" s="7"/>
-      <c r="AQ3" s="7"/>
-      <c r="AR3" s="7"/>
-      <c r="AS3" s="7"/>
-      <c r="AT3" s="7"/>
-      <c r="AU3" s="7"/>
-      <c r="AV3" s="7"/>
-      <c r="AW3" s="7"/>
-      <c r="AX3" s="7"/>
-      <c r="AY3" s="7"/>
-      <c r="AZ3" s="7"/>
-      <c r="BA3" s="7"/>
-      <c r="BB3" s="7"/>
-      <c r="BC3" s="7"/>
-      <c r="BD3" s="7"/>
-      <c r="BE3" s="7"/>
-      <c r="BF3" s="7"/>
-      <c r="BG3" s="7"/>
-      <c r="BH3" s="7"/>
-      <c r="BI3" s="7"/>
-      <c r="BJ3" s="7"/>
-      <c r="BK3" s="7"/>
-      <c r="BL3" s="7"/>
-      <c r="BM3" s="7"/>
-      <c r="BN3" s="7"/>
-      <c r="BO3" s="7"/>
-      <c r="BP3" s="7"/>
-      <c r="BQ3" s="7"/>
-      <c r="BR3" s="7"/>
-      <c r="BS3" s="7"/>
-      <c r="BT3" s="7"/>
-      <c r="BU3" s="7"/>
-      <c r="BV3" s="7"/>
-      <c r="BW3" s="7"/>
-      <c r="BX3" s="7"/>
-      <c r="BY3" s="7"/>
-      <c r="BZ3" s="7"/>
-      <c r="AMI3" s="8"/>
-      <c r="AMJ3" s="8"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="18"/>
+      <c r="W3" s="18"/>
+      <c r="X3" s="18"/>
+      <c r="Y3" s="18"/>
+      <c r="Z3" s="18"/>
+      <c r="AA3" s="18"/>
+      <c r="AB3" s="18"/>
+      <c r="AC3" s="18"/>
+      <c r="AD3" s="18"/>
+      <c r="AE3" s="18"/>
+      <c r="AF3" s="18"/>
+      <c r="AG3" s="18"/>
+      <c r="AH3" s="18"/>
+      <c r="AI3" s="18"/>
+      <c r="AJ3" s="18"/>
+      <c r="AK3" s="18"/>
+      <c r="AL3" s="18"/>
+      <c r="AM3" s="18"/>
+      <c r="AN3" s="18"/>
+      <c r="AO3" s="18"/>
+      <c r="AP3" s="18"/>
+      <c r="AQ3" s="18"/>
+      <c r="AR3" s="18"/>
+      <c r="AS3" s="18"/>
+      <c r="AT3" s="18"/>
+      <c r="AU3" s="18"/>
+      <c r="AV3" s="18"/>
+      <c r="AW3" s="18"/>
+      <c r="AX3" s="18"/>
+      <c r="AY3" s="18"/>
+      <c r="AZ3" s="18"/>
+      <c r="BA3" s="18"/>
+      <c r="BB3" s="18"/>
+      <c r="BC3" s="18"/>
+      <c r="BD3" s="18"/>
+      <c r="BE3" s="18"/>
+      <c r="BF3" s="18"/>
+      <c r="BG3" s="18"/>
+      <c r="BH3" s="18"/>
+      <c r="BI3" s="18"/>
+      <c r="BJ3" s="18"/>
+      <c r="BK3" s="18"/>
+      <c r="BL3" s="18"/>
+      <c r="BM3" s="18"/>
+      <c r="BN3" s="18"/>
+      <c r="BO3" s="18"/>
+      <c r="BP3" s="18"/>
+      <c r="BQ3" s="18"/>
+      <c r="BR3" s="18"/>
+      <c r="BS3" s="18"/>
+      <c r="BT3" s="18"/>
+      <c r="BU3" s="18"/>
+      <c r="BV3" s="18"/>
+      <c r="BW3" s="18"/>
+      <c r="BX3" s="18"/>
+      <c r="BY3" s="18"/>
+      <c r="BZ3" s="18"/>
+      <c r="AMI3" s="19"/>
+      <c r="AMJ3" s="19"/>
     </row>
-    <row r="4" ht="12.8" s="8" customFormat="1">
-      <c r="A4" s="9" t="s">
+    <row r="4" ht="12.8" s="19" customFormat="1">
+      <c r="A4" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="7" t="s">
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="7"/>
-      <c r="V4" s="7"/>
-      <c r="W4" s="7"/>
-      <c r="X4" s="7"/>
-      <c r="Y4" s="7"/>
-      <c r="Z4" s="7"/>
-      <c r="AA4" s="7"/>
-      <c r="AB4" s="7"/>
-      <c r="AC4" s="7"/>
-      <c r="AD4" s="7"/>
-      <c r="AE4" s="7"/>
-      <c r="AF4" s="7"/>
-      <c r="AG4" s="7"/>
-      <c r="AH4" s="7"/>
-      <c r="AI4" s="7"/>
-      <c r="AJ4" s="7"/>
-      <c r="AK4" s="7"/>
-      <c r="AL4" s="7"/>
-      <c r="AM4" s="7"/>
-      <c r="AN4" s="7"/>
-      <c r="AO4" s="7"/>
-      <c r="AP4" s="7"/>
-      <c r="AQ4" s="7"/>
-      <c r="AR4" s="7"/>
-      <c r="AS4" s="7"/>
-      <c r="AT4" s="7"/>
-      <c r="AU4" s="7"/>
-      <c r="AV4" s="7"/>
-      <c r="AW4" s="7"/>
-      <c r="AX4" s="7"/>
-      <c r="AY4" s="7"/>
-      <c r="AZ4" s="7"/>
-      <c r="BA4" s="7"/>
-      <c r="BB4" s="7"/>
-      <c r="BC4" s="7"/>
-      <c r="BD4" s="7"/>
-      <c r="BE4" s="7"/>
-      <c r="BF4" s="7"/>
-      <c r="BG4" s="7"/>
-      <c r="BH4" s="7"/>
-      <c r="BI4" s="7"/>
-      <c r="BJ4" s="7"/>
-      <c r="BK4" s="7"/>
-      <c r="BL4" s="7"/>
-      <c r="BM4" s="7"/>
-      <c r="BN4" s="7"/>
-      <c r="BO4" s="7"/>
-      <c r="BP4" s="7"/>
-      <c r="BQ4" s="7"/>
-      <c r="BR4" s="7"/>
-      <c r="BS4" s="7"/>
-      <c r="BT4" s="7"/>
-      <c r="BU4" s="7"/>
-      <c r="BV4" s="7"/>
-      <c r="BW4" s="7"/>
-      <c r="BX4" s="7"/>
-      <c r="BY4" s="7"/>
-      <c r="BZ4" s="7"/>
-      <c r="AMI4" s="8"/>
-      <c r="AMJ4" s="8"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="18"/>
+      <c r="U4" s="18"/>
+      <c r="V4" s="18"/>
+      <c r="W4" s="18"/>
+      <c r="X4" s="18"/>
+      <c r="Y4" s="18"/>
+      <c r="Z4" s="18"/>
+      <c r="AA4" s="18"/>
+      <c r="AB4" s="18"/>
+      <c r="AC4" s="18"/>
+      <c r="AD4" s="18"/>
+      <c r="AE4" s="18"/>
+      <c r="AF4" s="18"/>
+      <c r="AG4" s="18"/>
+      <c r="AH4" s="18"/>
+      <c r="AI4" s="18"/>
+      <c r="AJ4" s="18"/>
+      <c r="AK4" s="18"/>
+      <c r="AL4" s="18"/>
+      <c r="AM4" s="18"/>
+      <c r="AN4" s="18"/>
+      <c r="AO4" s="18"/>
+      <c r="AP4" s="18"/>
+      <c r="AQ4" s="18"/>
+      <c r="AR4" s="18"/>
+      <c r="AS4" s="18"/>
+      <c r="AT4" s="18"/>
+      <c r="AU4" s="18"/>
+      <c r="AV4" s="18"/>
+      <c r="AW4" s="18"/>
+      <c r="AX4" s="18"/>
+      <c r="AY4" s="18"/>
+      <c r="AZ4" s="18"/>
+      <c r="BA4" s="18"/>
+      <c r="BB4" s="18"/>
+      <c r="BC4" s="18"/>
+      <c r="BD4" s="18"/>
+      <c r="BE4" s="18"/>
+      <c r="BF4" s="18"/>
+      <c r="BG4" s="18"/>
+      <c r="BH4" s="18"/>
+      <c r="BI4" s="18"/>
+      <c r="BJ4" s="18"/>
+      <c r="BK4" s="18"/>
+      <c r="BL4" s="18"/>
+      <c r="BM4" s="18"/>
+      <c r="BN4" s="18"/>
+      <c r="BO4" s="18"/>
+      <c r="BP4" s="18"/>
+      <c r="BQ4" s="18"/>
+      <c r="BR4" s="18"/>
+      <c r="BS4" s="18"/>
+      <c r="BT4" s="18"/>
+      <c r="BU4" s="18"/>
+      <c r="BV4" s="18"/>
+      <c r="BW4" s="18"/>
+      <c r="BX4" s="18"/>
+      <c r="BY4" s="18"/>
+      <c r="BZ4" s="18"/>
+      <c r="AMI4" s="19"/>
+      <c r="AMJ4" s="19"/>
     </row>
-    <row r="5" ht="12.8" s="8" customFormat="1">
-      <c r="A5" s="11" t="s">
+    <row r="5" ht="12.8" s="19" customFormat="1">
+      <c r="A5" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12" t="s">
+      <c r="B5" s="22"/>
+      <c r="C5" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="7" t="s">
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
-      <c r="U5" s="7"/>
-      <c r="V5" s="7"/>
-      <c r="W5" s="7"/>
-      <c r="X5" s="7"/>
-      <c r="Y5" s="7"/>
-      <c r="Z5" s="7"/>
-      <c r="AA5" s="7"/>
-      <c r="AB5" s="7"/>
-      <c r="AC5" s="7"/>
-      <c r="AD5" s="7"/>
-      <c r="AE5" s="7"/>
-      <c r="AF5" s="7"/>
-      <c r="AG5" s="7"/>
-      <c r="AH5" s="7"/>
-      <c r="AI5" s="7"/>
-      <c r="AJ5" s="7"/>
-      <c r="AK5" s="7"/>
-      <c r="AL5" s="7"/>
-      <c r="AM5" s="7"/>
-      <c r="AN5" s="7"/>
-      <c r="AO5" s="7"/>
-      <c r="AP5" s="7"/>
-      <c r="AQ5" s="7"/>
-      <c r="AR5" s="7"/>
-      <c r="AS5" s="7"/>
-      <c r="AT5" s="7"/>
-      <c r="AU5" s="7"/>
-      <c r="AV5" s="7"/>
-      <c r="AW5" s="7"/>
-      <c r="AX5" s="7"/>
-      <c r="AY5" s="7"/>
-      <c r="AZ5" s="7"/>
-      <c r="BA5" s="7"/>
-      <c r="BB5" s="7"/>
-      <c r="BC5" s="7"/>
-      <c r="BD5" s="7"/>
-      <c r="BE5" s="7"/>
-      <c r="BF5" s="7"/>
-      <c r="BG5" s="7"/>
-      <c r="BH5" s="7"/>
-      <c r="BI5" s="7"/>
-      <c r="BJ5" s="7"/>
-      <c r="BK5" s="7"/>
-      <c r="BL5" s="7"/>
-      <c r="BM5" s="7"/>
-      <c r="BN5" s="7"/>
-      <c r="BO5" s="7"/>
-      <c r="BP5" s="7"/>
-      <c r="BQ5" s="7"/>
-      <c r="BR5" s="7"/>
-      <c r="BS5" s="7"/>
-      <c r="BT5" s="7"/>
-      <c r="BU5" s="7"/>
-      <c r="BV5" s="7"/>
-      <c r="BW5" s="7"/>
-      <c r="BX5" s="7"/>
-      <c r="BY5" s="7"/>
-      <c r="BZ5" s="7"/>
-      <c r="AMI5" s="8"/>
-      <c r="AMJ5" s="8"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="18"/>
+      <c r="T5" s="18"/>
+      <c r="U5" s="18"/>
+      <c r="V5" s="18"/>
+      <c r="W5" s="18"/>
+      <c r="X5" s="18"/>
+      <c r="Y5" s="18"/>
+      <c r="Z5" s="18"/>
+      <c r="AA5" s="18"/>
+      <c r="AB5" s="18"/>
+      <c r="AC5" s="18"/>
+      <c r="AD5" s="18"/>
+      <c r="AE5" s="18"/>
+      <c r="AF5" s="18"/>
+      <c r="AG5" s="18"/>
+      <c r="AH5" s="18"/>
+      <c r="AI5" s="18"/>
+      <c r="AJ5" s="18"/>
+      <c r="AK5" s="18"/>
+      <c r="AL5" s="18"/>
+      <c r="AM5" s="18"/>
+      <c r="AN5" s="18"/>
+      <c r="AO5" s="18"/>
+      <c r="AP5" s="18"/>
+      <c r="AQ5" s="18"/>
+      <c r="AR5" s="18"/>
+      <c r="AS5" s="18"/>
+      <c r="AT5" s="18"/>
+      <c r="AU5" s="18"/>
+      <c r="AV5" s="18"/>
+      <c r="AW5" s="18"/>
+      <c r="AX5" s="18"/>
+      <c r="AY5" s="18"/>
+      <c r="AZ5" s="18"/>
+      <c r="BA5" s="18"/>
+      <c r="BB5" s="18"/>
+      <c r="BC5" s="18"/>
+      <c r="BD5" s="18"/>
+      <c r="BE5" s="18"/>
+      <c r="BF5" s="18"/>
+      <c r="BG5" s="18"/>
+      <c r="BH5" s="18"/>
+      <c r="BI5" s="18"/>
+      <c r="BJ5" s="18"/>
+      <c r="BK5" s="18"/>
+      <c r="BL5" s="18"/>
+      <c r="BM5" s="18"/>
+      <c r="BN5" s="18"/>
+      <c r="BO5" s="18"/>
+      <c r="BP5" s="18"/>
+      <c r="BQ5" s="18"/>
+      <c r="BR5" s="18"/>
+      <c r="BS5" s="18"/>
+      <c r="BT5" s="18"/>
+      <c r="BU5" s="18"/>
+      <c r="BV5" s="18"/>
+      <c r="BW5" s="18"/>
+      <c r="BX5" s="18"/>
+      <c r="BY5" s="18"/>
+      <c r="BZ5" s="18"/>
+      <c r="AMI5" s="19"/>
+      <c r="AMJ5" s="19"/>
     </row>
-    <row r="6" ht="12.8" s="8" customFormat="1">
-      <c r="A6" s="11" t="s">
+    <row r="6" ht="12.8" s="19" customFormat="1">
+      <c r="A6" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="7" t="s">
+      <c r="B6" s="22"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="7"/>
-      <c r="X6" s="7"/>
-      <c r="Y6" s="7"/>
-      <c r="Z6" s="7"/>
-      <c r="AA6" s="7"/>
-      <c r="AB6" s="7"/>
-      <c r="AC6" s="7"/>
-      <c r="AD6" s="7"/>
-      <c r="AE6" s="7"/>
-      <c r="AF6" s="7"/>
-      <c r="AG6" s="7"/>
-      <c r="AH6" s="7"/>
-      <c r="AI6" s="7"/>
-      <c r="AJ6" s="7"/>
-      <c r="AK6" s="7"/>
-      <c r="AL6" s="7"/>
-      <c r="AM6" s="7"/>
-      <c r="AN6" s="7"/>
-      <c r="AO6" s="7"/>
-      <c r="AP6" s="7"/>
-      <c r="AQ6" s="7"/>
-      <c r="AR6" s="7"/>
-      <c r="AS6" s="7"/>
-      <c r="AT6" s="7"/>
-      <c r="AU6" s="7"/>
-      <c r="AV6" s="7"/>
-      <c r="AW6" s="7"/>
-      <c r="AX6" s="7"/>
-      <c r="AY6" s="7"/>
-      <c r="AZ6" s="7"/>
-      <c r="BA6" s="7"/>
-      <c r="BB6" s="7"/>
-      <c r="BC6" s="7"/>
-      <c r="BD6" s="7"/>
-      <c r="BE6" s="7"/>
-      <c r="BF6" s="7"/>
-      <c r="BG6" s="7"/>
-      <c r="BH6" s="7"/>
-      <c r="BI6" s="7"/>
-      <c r="BJ6" s="7"/>
-      <c r="BK6" s="7"/>
-      <c r="BL6" s="7"/>
-      <c r="BM6" s="7"/>
-      <c r="BN6" s="7"/>
-      <c r="BO6" s="7"/>
-      <c r="BP6" s="7"/>
-      <c r="BQ6" s="7"/>
-      <c r="BR6" s="7"/>
-      <c r="BS6" s="7"/>
-      <c r="BT6" s="7"/>
-      <c r="BU6" s="7"/>
-      <c r="BV6" s="7"/>
-      <c r="BW6" s="7"/>
-      <c r="BX6" s="7"/>
-      <c r="BY6" s="7"/>
-      <c r="BZ6" s="7"/>
-      <c r="AMI6" s="8"/>
-      <c r="AMJ6" s="8"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="18"/>
+      <c r="U6" s="18"/>
+      <c r="V6" s="18"/>
+      <c r="W6" s="18"/>
+      <c r="X6" s="18"/>
+      <c r="Y6" s="18"/>
+      <c r="Z6" s="18"/>
+      <c r="AA6" s="18"/>
+      <c r="AB6" s="18"/>
+      <c r="AC6" s="18"/>
+      <c r="AD6" s="18"/>
+      <c r="AE6" s="18"/>
+      <c r="AF6" s="18"/>
+      <c r="AG6" s="18"/>
+      <c r="AH6" s="18"/>
+      <c r="AI6" s="18"/>
+      <c r="AJ6" s="18"/>
+      <c r="AK6" s="18"/>
+      <c r="AL6" s="18"/>
+      <c r="AM6" s="18"/>
+      <c r="AN6" s="18"/>
+      <c r="AO6" s="18"/>
+      <c r="AP6" s="18"/>
+      <c r="AQ6" s="18"/>
+      <c r="AR6" s="18"/>
+      <c r="AS6" s="18"/>
+      <c r="AT6" s="18"/>
+      <c r="AU6" s="18"/>
+      <c r="AV6" s="18"/>
+      <c r="AW6" s="18"/>
+      <c r="AX6" s="18"/>
+      <c r="AY6" s="18"/>
+      <c r="AZ6" s="18"/>
+      <c r="BA6" s="18"/>
+      <c r="BB6" s="18"/>
+      <c r="BC6" s="18"/>
+      <c r="BD6" s="18"/>
+      <c r="BE6" s="18"/>
+      <c r="BF6" s="18"/>
+      <c r="BG6" s="18"/>
+      <c r="BH6" s="18"/>
+      <c r="BI6" s="18"/>
+      <c r="BJ6" s="18"/>
+      <c r="BK6" s="18"/>
+      <c r="BL6" s="18"/>
+      <c r="BM6" s="18"/>
+      <c r="BN6" s="18"/>
+      <c r="BO6" s="18"/>
+      <c r="BP6" s="18"/>
+      <c r="BQ6" s="18"/>
+      <c r="BR6" s="18"/>
+      <c r="BS6" s="18"/>
+      <c r="BT6" s="18"/>
+      <c r="BU6" s="18"/>
+      <c r="BV6" s="18"/>
+      <c r="BW6" s="18"/>
+      <c r="BX6" s="18"/>
+      <c r="BY6" s="18"/>
+      <c r="BZ6" s="18"/>
+      <c r="AMI6" s="19"/>
+      <c r="AMJ6" s="19"/>
     </row>
-    <row r="7" ht="13.5" customHeight="1" s="8" customFormat="1">
-      <c r="A7" s="11" t="s">
+    <row r="7" ht="13.5" customHeight="1" s="19" customFormat="1">
+      <c r="A7" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="6" t="s">
+      <c r="B7" s="22"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="7" t="s">
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
-      <c r="U7" s="7"/>
-      <c r="V7" s="7"/>
-      <c r="W7" s="7"/>
-      <c r="X7" s="7"/>
-      <c r="Y7" s="7"/>
-      <c r="Z7" s="7"/>
-      <c r="AA7" s="7"/>
-      <c r="AB7" s="7"/>
-      <c r="AC7" s="7"/>
-      <c r="AD7" s="7"/>
-      <c r="AE7" s="7"/>
-      <c r="AF7" s="7"/>
-      <c r="AG7" s="7"/>
-      <c r="AH7" s="7"/>
-      <c r="AI7" s="7"/>
-      <c r="AJ7" s="7"/>
-      <c r="AK7" s="7"/>
-      <c r="AL7" s="7"/>
-      <c r="AM7" s="7"/>
-      <c r="AN7" s="7"/>
-      <c r="AO7" s="7"/>
-      <c r="AP7" s="7"/>
-      <c r="AQ7" s="7"/>
-      <c r="AR7" s="7"/>
-      <c r="AS7" s="7"/>
-      <c r="AT7" s="7"/>
-      <c r="AU7" s="7"/>
-      <c r="AV7" s="7"/>
-      <c r="AW7" s="7"/>
-      <c r="AX7" s="7"/>
-      <c r="AY7" s="7"/>
-      <c r="AZ7" s="7"/>
-      <c r="BA7" s="7"/>
-      <c r="BB7" s="7"/>
-      <c r="BC7" s="7"/>
-      <c r="BD7" s="7"/>
-      <c r="BE7" s="7"/>
-      <c r="BF7" s="7"/>
-      <c r="BG7" s="7"/>
-      <c r="BH7" s="7"/>
-      <c r="BI7" s="7"/>
-      <c r="BJ7" s="7"/>
-      <c r="BK7" s="7"/>
-      <c r="BL7" s="7"/>
-      <c r="BM7" s="7"/>
-      <c r="BN7" s="7"/>
-      <c r="BO7" s="7"/>
-      <c r="BP7" s="7"/>
-      <c r="BQ7" s="7"/>
-      <c r="BR7" s="7"/>
-      <c r="BS7" s="7"/>
-      <c r="BT7" s="7"/>
-      <c r="BU7" s="7"/>
-      <c r="BV7" s="7"/>
-      <c r="BW7" s="7"/>
-      <c r="BX7" s="7"/>
-      <c r="BY7" s="7"/>
-      <c r="BZ7" s="7"/>
-      <c r="AMI7" s="8"/>
-      <c r="AMJ7" s="8"/>
+      <c r="R7" s="18"/>
+      <c r="S7" s="18"/>
+      <c r="T7" s="18"/>
+      <c r="U7" s="18"/>
+      <c r="V7" s="18"/>
+      <c r="W7" s="18"/>
+      <c r="X7" s="18"/>
+      <c r="Y7" s="18"/>
+      <c r="Z7" s="18"/>
+      <c r="AA7" s="18"/>
+      <c r="AB7" s="18"/>
+      <c r="AC7" s="18"/>
+      <c r="AD7" s="18"/>
+      <c r="AE7" s="18"/>
+      <c r="AF7" s="18"/>
+      <c r="AG7" s="18"/>
+      <c r="AH7" s="18"/>
+      <c r="AI7" s="18"/>
+      <c r="AJ7" s="18"/>
+      <c r="AK7" s="18"/>
+      <c r="AL7" s="18"/>
+      <c r="AM7" s="18"/>
+      <c r="AN7" s="18"/>
+      <c r="AO7" s="18"/>
+      <c r="AP7" s="18"/>
+      <c r="AQ7" s="18"/>
+      <c r="AR7" s="18"/>
+      <c r="AS7" s="18"/>
+      <c r="AT7" s="18"/>
+      <c r="AU7" s="18"/>
+      <c r="AV7" s="18"/>
+      <c r="AW7" s="18"/>
+      <c r="AX7" s="18"/>
+      <c r="AY7" s="18"/>
+      <c r="AZ7" s="18"/>
+      <c r="BA7" s="18"/>
+      <c r="BB7" s="18"/>
+      <c r="BC7" s="18"/>
+      <c r="BD7" s="18"/>
+      <c r="BE7" s="18"/>
+      <c r="BF7" s="18"/>
+      <c r="BG7" s="18"/>
+      <c r="BH7" s="18"/>
+      <c r="BI7" s="18"/>
+      <c r="BJ7" s="18"/>
+      <c r="BK7" s="18"/>
+      <c r="BL7" s="18"/>
+      <c r="BM7" s="18"/>
+      <c r="BN7" s="18"/>
+      <c r="BO7" s="18"/>
+      <c r="BP7" s="18"/>
+      <c r="BQ7" s="18"/>
+      <c r="BR7" s="18"/>
+      <c r="BS7" s="18"/>
+      <c r="BT7" s="18"/>
+      <c r="BU7" s="18"/>
+      <c r="BV7" s="18"/>
+      <c r="BW7" s="18"/>
+      <c r="BX7" s="18"/>
+      <c r="BY7" s="18"/>
+      <c r="BZ7" s="18"/>
+      <c r="AMI7" s="19"/>
+      <c r="AMJ7" s="19"/>
     </row>
-    <row r="8" ht="12" customHeight="1" s="8" customFormat="1">
-      <c r="A8" s="11" t="s">
+    <row r="8" ht="12" customHeight="1" s="19" customFormat="1">
+      <c r="A8" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="13">
+      <c r="B8" s="22"/>
+      <c r="C8" s="24">
         <v>1686</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="7" t="s">
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
-      <c r="U8" s="7"/>
-      <c r="V8" s="7"/>
-      <c r="W8" s="7"/>
-      <c r="X8" s="7"/>
-      <c r="Y8" s="7"/>
-      <c r="Z8" s="7"/>
-      <c r="AA8" s="7"/>
-      <c r="AB8" s="7"/>
-      <c r="AC8" s="7"/>
-      <c r="AD8" s="7"/>
-      <c r="AE8" s="7"/>
-      <c r="AF8" s="7"/>
-      <c r="AG8" s="7"/>
-      <c r="AH8" s="7"/>
-      <c r="AI8" s="7"/>
-      <c r="AJ8" s="7"/>
-      <c r="AK8" s="7"/>
-      <c r="AL8" s="7"/>
-      <c r="AM8" s="7"/>
-      <c r="AN8" s="7"/>
-      <c r="AO8" s="7"/>
-      <c r="AP8" s="7"/>
-      <c r="AQ8" s="7"/>
-      <c r="AR8" s="7"/>
-      <c r="AS8" s="7"/>
-      <c r="AT8" s="7"/>
-      <c r="AU8" s="7"/>
-      <c r="AV8" s="7"/>
-      <c r="AW8" s="7"/>
-      <c r="AX8" s="7"/>
-      <c r="AY8" s="7"/>
-      <c r="AZ8" s="7"/>
-      <c r="BA8" s="7"/>
-      <c r="BB8" s="7"/>
-      <c r="BC8" s="7"/>
-      <c r="BD8" s="7"/>
-      <c r="BE8" s="7"/>
-      <c r="BF8" s="7"/>
-      <c r="BG8" s="7"/>
-      <c r="BH8" s="7"/>
-      <c r="BI8" s="7"/>
-      <c r="BJ8" s="7"/>
-      <c r="BK8" s="7"/>
-      <c r="BL8" s="7"/>
-      <c r="BM8" s="7"/>
-      <c r="BN8" s="7"/>
-      <c r="BO8" s="7"/>
-      <c r="BP8" s="7"/>
-      <c r="BQ8" s="7"/>
-      <c r="BR8" s="7"/>
-      <c r="BS8" s="7"/>
-      <c r="BT8" s="7"/>
-      <c r="BU8" s="7"/>
-      <c r="BV8" s="7"/>
-      <c r="BW8" s="7"/>
-      <c r="BX8" s="7"/>
-      <c r="BY8" s="7"/>
-      <c r="BZ8" s="7"/>
-      <c r="AMI8" s="8"/>
-      <c r="AMJ8" s="8"/>
+      <c r="R8" s="18"/>
+      <c r="S8" s="18"/>
+      <c r="T8" s="18"/>
+      <c r="U8" s="18"/>
+      <c r="V8" s="18"/>
+      <c r="W8" s="18"/>
+      <c r="X8" s="18"/>
+      <c r="Y8" s="18"/>
+      <c r="Z8" s="18"/>
+      <c r="AA8" s="18"/>
+      <c r="AB8" s="18"/>
+      <c r="AC8" s="18"/>
+      <c r="AD8" s="18"/>
+      <c r="AE8" s="18"/>
+      <c r="AF8" s="18"/>
+      <c r="AG8" s="18"/>
+      <c r="AH8" s="18"/>
+      <c r="AI8" s="18"/>
+      <c r="AJ8" s="18"/>
+      <c r="AK8" s="18"/>
+      <c r="AL8" s="18"/>
+      <c r="AM8" s="18"/>
+      <c r="AN8" s="18"/>
+      <c r="AO8" s="18"/>
+      <c r="AP8" s="18"/>
+      <c r="AQ8" s="18"/>
+      <c r="AR8" s="18"/>
+      <c r="AS8" s="18"/>
+      <c r="AT8" s="18"/>
+      <c r="AU8" s="18"/>
+      <c r="AV8" s="18"/>
+      <c r="AW8" s="18"/>
+      <c r="AX8" s="18"/>
+      <c r="AY8" s="18"/>
+      <c r="AZ8" s="18"/>
+      <c r="BA8" s="18"/>
+      <c r="BB8" s="18"/>
+      <c r="BC8" s="18"/>
+      <c r="BD8" s="18"/>
+      <c r="BE8" s="18"/>
+      <c r="BF8" s="18"/>
+      <c r="BG8" s="18"/>
+      <c r="BH8" s="18"/>
+      <c r="BI8" s="18"/>
+      <c r="BJ8" s="18"/>
+      <c r="BK8" s="18"/>
+      <c r="BL8" s="18"/>
+      <c r="BM8" s="18"/>
+      <c r="BN8" s="18"/>
+      <c r="BO8" s="18"/>
+      <c r="BP8" s="18"/>
+      <c r="BQ8" s="18"/>
+      <c r="BR8" s="18"/>
+      <c r="BS8" s="18"/>
+      <c r="BT8" s="18"/>
+      <c r="BU8" s="18"/>
+      <c r="BV8" s="18"/>
+      <c r="BW8" s="18"/>
+      <c r="BX8" s="18"/>
+      <c r="BY8" s="18"/>
+      <c r="BZ8" s="18"/>
+      <c r="AMI8" s="19"/>
+      <c r="AMJ8" s="19"/>
     </row>
-    <row r="9" ht="12.8" s="8" customFormat="1">
-      <c r="A9" s="11" t="s">
+    <row r="9" ht="12.8" s="19" customFormat="1">
+      <c r="A9" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="13" t="s">
+      <c r="B9" s="22"/>
+      <c r="C9" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="7" t="s">
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="7"/>
-      <c r="U9" s="7"/>
-      <c r="V9" s="7"/>
-      <c r="W9" s="7"/>
-      <c r="X9" s="7"/>
-      <c r="Y9" s="7"/>
-      <c r="Z9" s="7"/>
-      <c r="AA9" s="7"/>
-      <c r="AB9" s="7"/>
-      <c r="AC9" s="7"/>
-      <c r="AD9" s="7"/>
-      <c r="AE9" s="7"/>
-      <c r="AF9" s="7"/>
-      <c r="AG9" s="7"/>
-      <c r="AH9" s="7"/>
-      <c r="AI9" s="7"/>
-      <c r="AJ9" s="7"/>
-      <c r="AK9" s="7"/>
-      <c r="AL9" s="7"/>
-      <c r="AM9" s="7"/>
-      <c r="AN9" s="7"/>
-      <c r="AO9" s="7"/>
-      <c r="AP9" s="7"/>
-      <c r="AQ9" s="7"/>
-      <c r="AR9" s="7"/>
-      <c r="AS9" s="7"/>
-      <c r="AT9" s="7"/>
-      <c r="AU9" s="7"/>
-      <c r="AV9" s="7"/>
-      <c r="AW9" s="7"/>
-      <c r="AX9" s="7"/>
-      <c r="AY9" s="7"/>
-      <c r="AZ9" s="7"/>
-      <c r="BA9" s="7"/>
-      <c r="BB9" s="7"/>
-      <c r="BC9" s="7"/>
-      <c r="BD9" s="7"/>
-      <c r="BE9" s="7"/>
-      <c r="BF9" s="7"/>
-      <c r="BG9" s="7"/>
-      <c r="BH9" s="7"/>
-      <c r="BI9" s="7"/>
-      <c r="BJ9" s="7"/>
-      <c r="BK9" s="7"/>
-      <c r="BL9" s="7"/>
-      <c r="BM9" s="7"/>
-      <c r="BN9" s="7"/>
-      <c r="BO9" s="7"/>
-      <c r="BP9" s="7"/>
-      <c r="BQ9" s="7"/>
-      <c r="BR9" s="7"/>
-      <c r="BS9" s="7"/>
-      <c r="BT9" s="7"/>
-      <c r="BU9" s="7"/>
-      <c r="BV9" s="7"/>
-      <c r="BW9" s="7"/>
-      <c r="BX9" s="7"/>
-      <c r="BY9" s="7"/>
-      <c r="BZ9" s="7"/>
-      <c r="AMI9" s="8"/>
-      <c r="AMJ9" s="8"/>
+      <c r="R9" s="18"/>
+      <c r="S9" s="18"/>
+      <c r="T9" s="18"/>
+      <c r="U9" s="18"/>
+      <c r="V9" s="18"/>
+      <c r="W9" s="18"/>
+      <c r="X9" s="18"/>
+      <c r="Y9" s="18"/>
+      <c r="Z9" s="18"/>
+      <c r="AA9" s="18"/>
+      <c r="AB9" s="18"/>
+      <c r="AC9" s="18"/>
+      <c r="AD9" s="18"/>
+      <c r="AE9" s="18"/>
+      <c r="AF9" s="18"/>
+      <c r="AG9" s="18"/>
+      <c r="AH9" s="18"/>
+      <c r="AI9" s="18"/>
+      <c r="AJ9" s="18"/>
+      <c r="AK9" s="18"/>
+      <c r="AL9" s="18"/>
+      <c r="AM9" s="18"/>
+      <c r="AN9" s="18"/>
+      <c r="AO9" s="18"/>
+      <c r="AP9" s="18"/>
+      <c r="AQ9" s="18"/>
+      <c r="AR9" s="18"/>
+      <c r="AS9" s="18"/>
+      <c r="AT9" s="18"/>
+      <c r="AU9" s="18"/>
+      <c r="AV9" s="18"/>
+      <c r="AW9" s="18"/>
+      <c r="AX9" s="18"/>
+      <c r="AY9" s="18"/>
+      <c r="AZ9" s="18"/>
+      <c r="BA9" s="18"/>
+      <c r="BB9" s="18"/>
+      <c r="BC9" s="18"/>
+      <c r="BD9" s="18"/>
+      <c r="BE9" s="18"/>
+      <c r="BF9" s="18"/>
+      <c r="BG9" s="18"/>
+      <c r="BH9" s="18"/>
+      <c r="BI9" s="18"/>
+      <c r="BJ9" s="18"/>
+      <c r="BK9" s="18"/>
+      <c r="BL9" s="18"/>
+      <c r="BM9" s="18"/>
+      <c r="BN9" s="18"/>
+      <c r="BO9" s="18"/>
+      <c r="BP9" s="18"/>
+      <c r="BQ9" s="18"/>
+      <c r="BR9" s="18"/>
+      <c r="BS9" s="18"/>
+      <c r="BT9" s="18"/>
+      <c r="BU9" s="18"/>
+      <c r="BV9" s="18"/>
+      <c r="BW9" s="18"/>
+      <c r="BX9" s="18"/>
+      <c r="BY9" s="18"/>
+      <c r="BZ9" s="18"/>
+      <c r="AMI9" s="19"/>
+      <c r="AMJ9" s="19"/>
     </row>
-    <row r="10" ht="12" customHeight="1" s="15" customFormat="1">
-      <c r="A10" s="11" t="s">
+    <row r="10" ht="12" customHeight="1" s="26" customFormat="1">
+      <c r="A10" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="7" t="s">
+      <c r="B10" s="22"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
-      <c r="U10" s="7"/>
-      <c r="V10" s="7"/>
-      <c r="W10" s="7"/>
-      <c r="X10" s="7"/>
-      <c r="Y10" s="7"/>
-      <c r="Z10" s="7"/>
-      <c r="AA10" s="7"/>
-      <c r="AB10" s="7"/>
-      <c r="AC10" s="7"/>
-      <c r="AD10" s="7"/>
-      <c r="AE10" s="7"/>
-      <c r="AF10" s="7"/>
-      <c r="AG10" s="7"/>
-      <c r="AH10" s="7"/>
-      <c r="AI10" s="7"/>
-      <c r="AJ10" s="7"/>
-      <c r="AK10" s="7"/>
-      <c r="AL10" s="7"/>
-      <c r="AM10" s="7"/>
-      <c r="AN10" s="7"/>
-      <c r="AO10" s="7"/>
-      <c r="AP10" s="7"/>
-      <c r="AQ10" s="7"/>
-      <c r="AR10" s="7"/>
-      <c r="AS10" s="7"/>
-      <c r="AT10" s="7"/>
-      <c r="AU10" s="7"/>
-      <c r="AV10" s="7"/>
-      <c r="AW10" s="7"/>
-      <c r="AX10" s="7"/>
-      <c r="AY10" s="7"/>
-      <c r="AZ10" s="7"/>
-      <c r="BA10" s="7"/>
-      <c r="BB10" s="7"/>
-      <c r="BC10" s="7"/>
-      <c r="BD10" s="7"/>
-      <c r="BE10" s="7"/>
-      <c r="BF10" s="7"/>
-      <c r="BG10" s="7"/>
-      <c r="BH10" s="7"/>
-      <c r="BI10" s="7"/>
-      <c r="BJ10" s="7"/>
-      <c r="BK10" s="7"/>
-      <c r="BL10" s="7"/>
-      <c r="BM10" s="7"/>
-      <c r="BN10" s="7"/>
-      <c r="BO10" s="7"/>
-      <c r="BP10" s="7"/>
-      <c r="BQ10" s="7"/>
-      <c r="BR10" s="7"/>
-      <c r="BS10" s="7"/>
-      <c r="BT10" s="7"/>
-      <c r="BU10" s="7"/>
-      <c r="BV10" s="7"/>
-      <c r="BW10" s="7"/>
-      <c r="BX10" s="7"/>
-      <c r="BY10" s="7"/>
-      <c r="BZ10" s="7"/>
-      <c r="AMI10" s="15"/>
-      <c r="AMJ10" s="15"/>
+      <c r="R10" s="18"/>
+      <c r="S10" s="18"/>
+      <c r="T10" s="18"/>
+      <c r="U10" s="18"/>
+      <c r="V10" s="18"/>
+      <c r="W10" s="18"/>
+      <c r="X10" s="18"/>
+      <c r="Y10" s="18"/>
+      <c r="Z10" s="18"/>
+      <c r="AA10" s="18"/>
+      <c r="AB10" s="18"/>
+      <c r="AC10" s="18"/>
+      <c r="AD10" s="18"/>
+      <c r="AE10" s="18"/>
+      <c r="AF10" s="18"/>
+      <c r="AG10" s="18"/>
+      <c r="AH10" s="18"/>
+      <c r="AI10" s="18"/>
+      <c r="AJ10" s="18"/>
+      <c r="AK10" s="18"/>
+      <c r="AL10" s="18"/>
+      <c r="AM10" s="18"/>
+      <c r="AN10" s="18"/>
+      <c r="AO10" s="18"/>
+      <c r="AP10" s="18"/>
+      <c r="AQ10" s="18"/>
+      <c r="AR10" s="18"/>
+      <c r="AS10" s="18"/>
+      <c r="AT10" s="18"/>
+      <c r="AU10" s="18"/>
+      <c r="AV10" s="18"/>
+      <c r="AW10" s="18"/>
+      <c r="AX10" s="18"/>
+      <c r="AY10" s="18"/>
+      <c r="AZ10" s="18"/>
+      <c r="BA10" s="18"/>
+      <c r="BB10" s="18"/>
+      <c r="BC10" s="18"/>
+      <c r="BD10" s="18"/>
+      <c r="BE10" s="18"/>
+      <c r="BF10" s="18"/>
+      <c r="BG10" s="18"/>
+      <c r="BH10" s="18"/>
+      <c r="BI10" s="18"/>
+      <c r="BJ10" s="18"/>
+      <c r="BK10" s="18"/>
+      <c r="BL10" s="18"/>
+      <c r="BM10" s="18"/>
+      <c r="BN10" s="18"/>
+      <c r="BO10" s="18"/>
+      <c r="BP10" s="18"/>
+      <c r="BQ10" s="18"/>
+      <c r="BR10" s="18"/>
+      <c r="BS10" s="18"/>
+      <c r="BT10" s="18"/>
+      <c r="BU10" s="18"/>
+      <c r="BV10" s="18"/>
+      <c r="BW10" s="18"/>
+      <c r="BX10" s="18"/>
+      <c r="BY10" s="18"/>
+      <c r="BZ10" s="18"/>
+      <c r="AMI10" s="26"/>
+      <c r="AMJ10" s="26"/>
     </row>
-    <row r="11" ht="21" customHeight="1" s="20" customFormat="1">
-      <c r="A11" s="16" t="s">
+    <row r="11" ht="21" customHeight="1" s="31" customFormat="1">
+      <c r="A11" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="20"/>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="20" t="s">
+      <c r="D11" s="19"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31"/>
+      <c r="P11" s="31"/>
+      <c r="Q11" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="AMI11" s="20"/>
-      <c r="AMJ11" s="20"/>
+      <c r="AMI11" s="31"/>
+      <c r="AMJ11" s="31"/>
     </row>
-    <row r="12" ht="21" customHeight="1" s="20" customFormat="1">
-      <c r="A12" s="16"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="20"/>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="20" t="s">
+    <row r="12" ht="21" customHeight="1" s="31" customFormat="1">
+      <c r="A12" s="27"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="31"/>
+      <c r="O12" s="31"/>
+      <c r="P12" s="31"/>
+      <c r="Q12" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="AMI12" s="20"/>
-      <c r="AMJ12" s="20"/>
+      <c r="AMI12" s="31"/>
+      <c r="AMJ12" s="31"/>
     </row>
-    <row r="13" ht="54" customHeight="1" s="20" customFormat="1">
-      <c r="A13" s="16"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="8" t="s">
+    <row r="13" ht="54" customHeight="1" s="31" customFormat="1">
+      <c r="A13" s="27"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="G13" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="H13" s="8" t="s">
+      <c r="H13" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="I13" s="15" t="s">
+      <c r="I13" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="J13" s="15" t="s">
+      <c r="J13" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="K13" s="21" t="s">
+      <c r="K13" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="L13" s="21" t="s">
+      <c r="L13" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="M13" s="22" t="s">
+      <c r="M13" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="N13" s="23" t="s">
+      <c r="N13" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="O13" s="15" t="s">
+      <c r="O13" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="P13" s="24" t="s">
+      <c r="P13" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="Q13" s="20" t="s">
+      <c r="Q13" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="AMI13" s="20"/>
-      <c r="AMJ13" s="20"/>
+      <c r="AMI13" s="31"/>
+      <c r="AMJ13" s="31"/>
     </row>
     <row r="14">
-      <c r="A14" s="1">
+      <c r="A14" s="12">
         <v>1</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="12">
         <v>1</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14" s="12">
         <v>1</v>
       </c>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1">
+      <c r="J14" s="12"/>
+      <c r="K14" s="12">
         <v>65</v>
       </c>
-      <c r="L14" s="1">
+      <c r="L14" s="12">
         <v>75</v>
       </c>
-      <c r="O14" s="1">
+      <c r="O14" s="12">
         <v>1</v>
       </c>
-      <c r="Q14" s="1" t="s">
+      <c r="Q14" s="12" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="15" ht="12.8">
-      <c r="A15" s="25">
+      <c r="A15" s="36">
         <v>2</v>
       </c>
-      <c r="B15" s="25">
+      <c r="B15" s="36">
         <v>2</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G15" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H15" s="12">
         <v>1</v>
       </c>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1">
+      <c r="J15" s="12"/>
+      <c r="K15" s="12">
         <v>55</v>
       </c>
-      <c r="L15" s="1">
+      <c r="L15" s="12">
         <v>60</v>
       </c>
-      <c r="Q15" s="1" t="s">
+      <c r="Q15" s="12" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="16" ht="12.8">
-      <c r="A16" s="25">
+      <c r="A16" s="36">
         <v>3</v>
       </c>
-      <c r="B16" s="25">
+      <c r="B16" s="36">
         <v>3</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H16" s="12">
+        <v>1</v>
+      </c>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12">
         <v>35</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H16" s="1">
-        <v>1</v>
-      </c>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1">
-        <v>35</v>
-      </c>
-      <c r="Q16" s="1" t="s">
+      <c r="Q16" s="12" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="17" ht="12.8">
-      <c r="A17" s="25">
+      <c r="A17" s="36">
         <v>4</v>
       </c>
-      <c r="B17" s="25">
+      <c r="B17" s="36">
         <v>4</v>
       </c>
-      <c r="C17" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H17" s="1">
+      <c r="C17" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H17" s="12">
         <v>1</v>
       </c>
-      <c r="J17" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q17" s="1" t="s">
+      <c r="J17" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q17" s="12" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="18" ht="12.8">
-      <c r="A18" s="25">
+      <c r="A18" s="36">
         <v>5</v>
       </c>
-      <c r="B18" s="25">
+      <c r="B18" s="36">
         <v>5</v>
       </c>
-      <c r="C18" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="G18" s="1" t="s">
+      <c r="C18" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="H18" s="1">
+      <c r="G18" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="H18" s="12">
         <v>1</v>
       </c>
-      <c r="J18" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q18" s="1" t="s">
+      <c r="J18" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="K18" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q18" s="12" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="19" ht="12.8">
-      <c r="A19" s="25">
+      <c r="A19" s="36">
         <v>6</v>
       </c>
-      <c r="B19" s="25">
+      <c r="B19" s="36">
         <v>6</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G19" s="1" t="s">
+      <c r="C19" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="H19" s="1">
+      <c r="G19" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="H19" s="12">
         <v>1</v>
       </c>
-      <c r="J19" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q19" s="1" t="s">
+      <c r="J19" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q19" s="12" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="20" ht="12.8">
-      <c r="A20" s="25"/>
-      <c r="B20" s="25"/>
+      <c r="A20" s="36"/>
+      <c r="B20" s="36"/>
     </row>
     <row r="21" ht="12.8">
-      <c r="A21" s="25"/>
-      <c r="B21" s="25"/>
+      <c r="A21" s="36"/>
+      <c r="B21" s="36"/>
     </row>
     <row r="22" ht="12.8">
-      <c r="A22" s="25"/>
-      <c r="B22" s="25"/>
+      <c r="A22" s="36"/>
+      <c r="B22" s="36"/>
     </row>
     <row r="23" ht="12.8">
-      <c r="A23" s="25"/>
-      <c r="B23" s="25"/>
+      <c r="A23" s="36"/>
+      <c r="B23" s="36"/>
     </row>
     <row r="24" ht="12.8">
-      <c r="A24" s="25"/>
-      <c r="B24" s="25"/>
+      <c r="A24" s="36"/>
+      <c r="B24" s="36"/>
     </row>
     <row r="25" ht="12.8">
-      <c r="A25" s="25"/>
-      <c r="B25" s="25"/>
+      <c r="A25" s="36"/>
+      <c r="B25" s="36"/>
     </row>
   </sheetData>
   <mergeCells>

--- a/schliessanlagen-konfigurator/schliessanlagen-konfigurator/wwwroot/Orders/AnthonyBonetta1652024 OrderFile.xlsx
+++ b/schliessanlagen-konfigurator/schliessanlagen-konfigurator/wwwroot/Orders/AnthonyBonetta1652024 OrderFile.xlsx
@@ -708,7 +708,7 @@
     <t>System:</t>
   </si>
   <si>
-    <t>UDM5</t>
+    <t>Bravus.3000</t>
   </si>
   <si>
     <t>Anl.-Art:</t>
@@ -2250,7 +2250,9 @@
       <c r="H15" s="12">
         <v>1</v>
       </c>
-      <c r="J15" s="12"/>
+      <c r="J15" s="12" t="s">
+        <v>35</v>
+      </c>
       <c r="K15" s="12">
         <v>55</v>
       </c>
@@ -2277,7 +2279,9 @@
       <c r="H16" s="12">
         <v>1</v>
       </c>
-      <c r="J16" s="12"/>
+      <c r="J16" s="12" t="s">
+        <v>35</v>
+      </c>
       <c r="K16" s="12">
         <v>35</v>
       </c>
